--- a/biology/Zoologie/Isocrinidae/Isocrinidae.xlsx
+++ b/biology/Zoologie/Isocrinidae/Isocrinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Isocrinidae sont une famille de Crinoïdes (Échinodermes) sessiles, de l'ordre des Isocrinida.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des crinoïdes « vrais » (sessiles) : ils vivent attachés au fond par une longue tige calcaire articulée. Celle-ci est constituée d'articles internodaux alternant avec des articles nodaux, qui portent des cirrhes articulés et terminés par une griffe[2]. 
-Ce groupe se distingue des autres Isocrinina par une synarthrie entre les primibrachiaux 1 et 2[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des crinoïdes « vrais » (sessiles) : ils vivent attachés au fond par une longue tige calcaire articulée. Celle-ci est constituée d'articles internodaux alternant avec des articles nodaux, qui portent des cirrhes articulés et terminés par une griffe. 
+Ce groupe se distingue des autres Isocrinina par une synarthrie entre les primibrachiaux 1 et 2. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 février 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 février 2021) :
 genre Hypalocrinus AH Clark, 1908
 Hypalocrinus naresianus (Carpenter, 1884)
 genre † Isocrinus  von Meyer in Agassiz, 1836
